--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1863094.129402506</v>
+        <v>1967273.763853578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>131.9809553984406</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.3296738389799</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,13 +876,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>29.0559215640374</v>
       </c>
       <c r="W4" t="n">
-        <v>265.2240618663681</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>317.7571317187202</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>93.45832099395179</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.9722389061854</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340841</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>186.6141597285343</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.54986581946017</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>152.6586601346115</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>220.204325947852</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>25.52471385612596</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428269</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>1.04391179877741</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.95488441967092</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.77749086859481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>160.6789846281978</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>45.66054613217769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>40.15381658332819</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1474991249037</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.66004604095002</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.3870054807226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4437,22 +4439,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3315924698002</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621287</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="W4" t="n">
-        <v>612.3211433678175</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="X4" t="n">
-        <v>384.3315924698002</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.3315924698002</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.906022842682</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1938.906022842682</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1307.139899155927</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1017.722729118966</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3137.106670368228</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3137.106670368228</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>441.479525463516</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>272.5433425356091</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>272.5433425356091</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>272.5433425356091</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.6533950376987</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1773.093881285855</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1483.991014411499</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.306526205612</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>939.8893561686509</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>711.8998052706336</v>
+        <v>843.9205694372858</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>623.1279902937557</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5124,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5276,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1465.957241786169</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1176.540071749208</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6203,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,19 +6311,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.3544215660705</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2427.816735681603</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2244.961901336507</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2244.961901336507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.886674680705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.202186474818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1411.785016437858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.79546553984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.0028863963103</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,40 +6454,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6528,37 +6530,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797183</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797183</v>
+        <v>263.586565790213</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>121.8747346324111</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038283</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797684</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910803</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235159</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.5067842581</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6956,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558404</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>2711.601905788527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>2561.485266376192</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>2561.485266376192</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376192</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532174</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388644</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>449.4852666057155</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>301.5721730233224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>301.5721730233224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>134.3760737382024</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>156.0995378368103</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.8686257536381</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7628,40 +7630,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,13 +7733,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2410.164476918741</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-5.79320099770372e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>31.93331737597597</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864856</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>145.3900508477918</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42036229045077</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>53.48834544997072</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.5054897610463</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>121.5862749664501</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>6.257951202384589</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>19.6057902776155</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747526</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747526</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26350,10 +26352,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>5.610093858194886e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26436,25 +26438,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683038</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954133.3463021687</v>
+        <v>-954133.346302169</v>
       </c>
       <c r="C6" t="n">
-        <v>374611.399425423</v>
+        <v>374611.3994254232</v>
       </c>
       <c r="D6" t="n">
         <v>374611.3994254236</v>
       </c>
       <c r="E6" t="n">
-        <v>125470.7640049118</v>
+        <v>125470.7640049115</v>
       </c>
       <c r="F6" t="n">
         <v>450883.2258122669</v>
       </c>
       <c r="G6" t="n">
+        <v>450883.2258122669</v>
+      </c>
+      <c r="H6" t="n">
+        <v>450883.2258122668</v>
+      </c>
+      <c r="I6" t="n">
         <v>450883.2258122671</v>
       </c>
-      <c r="H6" t="n">
-        <v>450883.2258122666</v>
-      </c>
-      <c r="I6" t="n">
-        <v>450883.2258122666</v>
-      </c>
       <c r="J6" t="n">
-        <v>233352.0234149896</v>
+        <v>233352.0234149895</v>
       </c>
       <c r="K6" t="n">
-        <v>450883.2258122669</v>
+        <v>450883.225812267</v>
       </c>
       <c r="L6" t="n">
         <v>450883.2258122669</v>
@@ -26555,13 +26557,13 @@
         <v>365828.1978767553</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.225812267</v>
+        <v>450883.2258122669</v>
       </c>
       <c r="O6" t="n">
         <v>450883.225812267</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.2258122668</v>
+        <v>450883.225812267</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26987,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -27436,7 +27438,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.9082648170737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.0817217597906</v>
       </c>
       <c r="W4" t="n">
-        <v>21.29893647022294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>36.92590990196277</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>110.4596491456684</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>114.1654044176426</v>
+        <v>238.7088986081206</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076273</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,10 +27912,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>141.1380987416006</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.4759424395681</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>66.8902891415577</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29092,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-4.537419847786849e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.804778548830654e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29694,7 +29696,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.70274383079062e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30475,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31844,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32716,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>345.6771571865338</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,10 +33031,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430274</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,19 +34453,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35492,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>207.1227774066596</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36847,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683797</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36990,7 +36992,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409629</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.18080466315317</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967273.763853578</v>
+        <v>1963261.153839586</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>293.6407719183061</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>131.9809553984406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>19.89928445781527</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>29.0559215640374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>184.453010130131</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>93.45832099395179</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.42874471570741</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340841</v>
+        <v>243.4420291455272</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.54986581946017</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>142.3575218158273</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>263.3663026263085</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>220.204325947852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.52471385612596</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1685137621102</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.04391179877741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>113.4877306469552</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>27.77749086859481</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>211.1474991249037</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>61.66004604095002</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.9815576456784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038043</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1453.669719097631</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4366,16 +4366,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102165</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1817.363803514895</v>
       </c>
       <c r="V4" t="n">
-        <v>1105.559308646766</v>
+        <v>1562.679315309008</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.559308646766</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X4" t="n">
-        <v>1105.559308646766</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.559308646766</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3120.91280869793</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3120.91280869793</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>3120.91280869793</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2768.144153427816</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2531.483610522582</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,22 +4670,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D8" t="n">
-        <v>654.050464674405</v>
+        <v>769.4825048886548</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761608</v>
+        <v>769.4825048886548</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.479525463516</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>272.5433425356091</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>272.5433425356091</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E10" t="n">
-        <v>272.5433425356091</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>125.6533950376987</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.1279902937557</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432834</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049275</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304621</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>939.3433030602412</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>718.550723916711</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1465.957241786169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.540071749208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>948.5505208511906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,13 +5846,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,7 +6259,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7557007032921</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>801.6605733532803</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>263.586565790213</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>121.8747346324111</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>297.8113689946122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>297.8113689946122</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>156.0995378368103</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.257951202385101</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>22.81817176293561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>31.93331737597597</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.44677382459308</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>111.4161395899846</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0969227051396</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>53.48834544997072</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.257951202384589</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>19.6057902776155</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.26526345294945</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859702.8089747526</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26322,16 +26322,16 @@
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830046</v>
@@ -26340,22 +26340,22 @@
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26441,7 +26441,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26456,7 +26456,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954133.346302169</v>
+        <v>-954133.3463021693</v>
       </c>
       <c r="C6" t="n">
-        <v>374611.3994254232</v>
+        <v>374611.3994254235</v>
       </c>
       <c r="D6" t="n">
-        <v>374611.3994254236</v>
+        <v>374611.3994254239</v>
       </c>
       <c r="E6" t="n">
-        <v>125470.7640049115</v>
+        <v>125123.384750555</v>
       </c>
       <c r="F6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.84655791</v>
       </c>
       <c r="G6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.8465579101</v>
       </c>
       <c r="H6" t="n">
-        <v>450883.2258122668</v>
+        <v>450535.8465579101</v>
       </c>
       <c r="I6" t="n">
-        <v>450883.2258122671</v>
+        <v>450535.8465579101</v>
       </c>
       <c r="J6" t="n">
-        <v>233352.0234149895</v>
+        <v>233004.6441606325</v>
       </c>
       <c r="K6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.8465579099</v>
       </c>
       <c r="L6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.84655791</v>
       </c>
       <c r="M6" t="n">
-        <v>365828.1978767553</v>
+        <v>365480.818622398</v>
       </c>
       <c r="N6" t="n">
-        <v>450883.2258122669</v>
+        <v>450535.8465579099</v>
       </c>
       <c r="O6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.84655791</v>
       </c>
       <c r="P6" t="n">
-        <v>450883.225812267</v>
+        <v>450535.8465579098</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>89.09306974517449</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>222.7020862222423</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>169.8697408736266</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>223.0817217597906</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>198.2808315333496</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>110.4596491456684</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.68204843992055</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>238.7088986081206</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076273</v>
+        <v>163.4340165961842</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.4759424395681</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.537419847786849e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>200.3460366764704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>57.74979223202591</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1963261.153839586</v>
+        <v>1965021.684142371</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.6407719183061</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>19.89928445781527</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>6.882988967594683</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.453010130131</v>
+        <v>228.0656025585478</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>84.82420463792835</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>71.67037196991754</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>243.4420291455272</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>374.7451007731826</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>263.3663026263085</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>25.2632269748843</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346631</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578129</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.1685137621102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4877306469552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1817.363803514895</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1817.363803514895</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1817.363803514895</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1562.679315309008</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.262145272047</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522582</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522582</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4670,28 +4670,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738584</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459515</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336157</v>
+        <v>152.1931312179696</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>138.9064315533123</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845646</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040981</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495405</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495405</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886548</v>
+        <v>879.773173361559</v>
       </c>
       <c r="E8" t="n">
-        <v>769.4825048886548</v>
+        <v>493.9849207633147</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>487.0394200141113</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796419</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535339</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559527</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.550723916711</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.434512201106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.750023995219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1167.332853958259</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>939.3433030602412</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.550723916711</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273903</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>801.6605733532803</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,22 +7186,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273903</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.81817176293561</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>226.8744163489437</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.4161395899846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747529</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859702.8089747529</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859702.8089747528</v>
+        <v>859702.8089747527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859702.8089747527</v>
+        <v>859702.8089747528</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818167</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,10 +26432,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26527,43 +26527,43 @@
         <v>374611.3994254235</v>
       </c>
       <c r="D6" t="n">
-        <v>374611.3994254239</v>
+        <v>374611.3994254236</v>
       </c>
       <c r="E6" t="n">
-        <v>125123.384750555</v>
+        <v>125436.0260794761</v>
       </c>
       <c r="F6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868311</v>
       </c>
       <c r="G6" t="n">
-        <v>450535.8465579101</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="H6" t="n">
-        <v>450535.8465579101</v>
+        <v>450848.4878868311</v>
       </c>
       <c r="I6" t="n">
-        <v>450535.8465579101</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="J6" t="n">
-        <v>233004.6441606325</v>
+        <v>233317.2854895536</v>
       </c>
       <c r="K6" t="n">
-        <v>450535.8465579099</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="L6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868314</v>
       </c>
       <c r="M6" t="n">
-        <v>365480.818622398</v>
+        <v>365793.4599513196</v>
       </c>
       <c r="N6" t="n">
-        <v>450535.8465579099</v>
+        <v>450848.4878868315</v>
       </c>
       <c r="O6" t="n">
-        <v>450535.84655791</v>
+        <v>450848.4878868313</v>
       </c>
       <c r="P6" t="n">
-        <v>450535.8465579098</v>
+        <v>450848.4878868313</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.09306974517449</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>169.8697408736266</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>279.6400093689963</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.2808315333496</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>61.60975800864082</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>24.68204843992055</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>163.4340165961842</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>36.17662488027088</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
